--- a/results/serial/SA_rosenbrock_parametric.xlsx
+++ b/results/serial/SA_rosenbrock_parametric.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\0_Code\Projects\OptimisationProject\results\serial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07944031-AA8A-4F55-ADA6-C041A9F49D16}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13313940-DE23-4602-8B11-03065FF2659E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{86702613-70FB-4AAA-AD4F-73456B5426FF}"/>
   </bookViews>
@@ -20,12 +20,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>rosenbrock</t>
   </si>
@@ -52,6 +57,9 @@
   </si>
   <si>
     <t>D30</t>
+  </si>
+  <si>
+    <t>MATLAB STANDARD</t>
   </si>
 </sst>
 </file>
@@ -1275,15 +1283,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB1F317-3613-4B06-B070-310945D0DC2A}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="A21" sqref="A21:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" customWidth="1"/>
@@ -1633,8 +1641,67 @@
         <v>1.5323583846153848</v>
       </c>
     </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>233111.654124619</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>230441.97304604601</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>204423.52781068499</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>141419.09717991899</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>227479.09811312001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>206992.857383564</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>223467.550788166</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>210813.96820377</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>216863.77547185001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>57676.472966982801</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>